--- a/datamining/final_data/tfidf1974_nltk.xlsx
+++ b/datamining/final_data/tfidf1974_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX48"/>
+  <dimension ref="A1:GT48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,1130 +462,980 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>readiness</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>e.</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>paul</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>approaches</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>public-school</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>pupils</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>teacher-consultant</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>instant</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>oblique</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>averting</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>slump</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>preschool-children</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>has</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>observations</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>psychologist</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>reactions</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>seen</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>developing</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>fluency</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>chapter</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>times</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>femininity</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>glasses</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>intellect</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>men</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>passes</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>seldom</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>wear</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>early-childhood</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>accurate</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>identifiers</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>ignored</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>myopia</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>view</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>adolescent</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>functions</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>giftedly</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>good</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>aesops</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>fables</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>gifted-creative</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>lion</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>mouse</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>sense</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>best</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>birmingham</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>selling</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>frustration</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>future</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>ways</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>readers</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>spots</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>preschool</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>recognizing</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>1877-1956</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>memorial</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>resolution</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>terman</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>attempts</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>literature</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>recent</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>1960</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>analysis</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>form</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>l-m</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>performance</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>scale</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>stanford-binet</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>subtests</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>comes</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>dream</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>fourteen</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>father</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>helping</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>helpless</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>perspective</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>professions</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>1974</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>exceptional</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>kentucky</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>legislature</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>votes</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>.2</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>aesop</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>fox</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>music</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>than</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>brainstorming</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>competition</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>interscholastic</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>solving</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>growth</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>insights</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>into</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>national-association-for-gifted-children</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>struggles</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>plea</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>serve</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>unity</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>such</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>kindergarten</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>suggestions</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>personality</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>search</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>ashley</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>bright</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>motivating</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>rm</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>composition</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>musical</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>no-fault</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>path</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>acquired</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>dollar</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>grecian</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>metropolitan</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>million</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>museum</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>urn</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>individuals</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>childs</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>nature</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>values</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>ecology</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>kids</t>
         </is>
@@ -1602,34 +1452,34 @@
         <v>1747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G2" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="I2" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="J2" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="K2" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2196,96 +2046,6 @@
         <v>0</v>
       </c>
       <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2321,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2894,96 +2654,6 @@
         <v>0</v>
       </c>
       <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3007,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3028,37 +2698,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="R4" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="S4" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="T4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -3592,96 +3262,6 @@
         <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3705,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3741,37 +3321,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -4290,96 +3870,6 @@
         <v>0</v>
       </c>
       <c r="GT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -4457,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -4472,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -4988,96 +4478,6 @@
         <v>0</v>
       </c>
       <c r="GT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5101,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -5134,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -5164,43 +4564,43 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -5686,96 +5086,6 @@
         <v>0</v>
       </c>
       <c r="GT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5799,16 +5109,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -5880,43 +5190,43 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -6384,96 +5694,6 @@
         <v>0</v>
       </c>
       <c r="GT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6497,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6515,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -6578,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -6596,19 +5816,19 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -6617,25 +5837,25 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -7082,96 +6302,6 @@
         <v>0</v>
       </c>
       <c r="GT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7189,16 +6319,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F10" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7231,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -7252,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -7309,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -7336,13 +6466,13 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -7780,96 +6910,6 @@
         <v>0</v>
       </c>
       <c r="GT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8013,22 +7053,22 @@
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
@@ -8043,19 +7083,19 @@
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -8478,96 +7518,6 @@
         <v>0</v>
       </c>
       <c r="GT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8729,70 +7679,70 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -9176,96 +8126,6 @@
         <v>0</v>
       </c>
       <c r="GT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9280,7 +8140,7 @@
         <v>1758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9289,16 +8149,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -9457,10 +8317,10 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
@@ -9493,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -9874,96 +8734,6 @@
         <v>0</v>
       </c>
       <c r="GT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9996,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -10161,19 +8931,19 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BP14" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -10197,25 +8967,25 @@
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -10572,96 +9342,6 @@
         <v>0</v>
       </c>
       <c r="GT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10685,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -10874,10 +9554,10 @@
         <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BT15" t="n">
         <v>0</v>
@@ -10916,13 +9596,13 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -11270,96 +9950,6 @@
         <v>0</v>
       </c>
       <c r="GT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11383,10 +9973,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -11452,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -11470,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -11503,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -11569,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
@@ -11611,13 +10201,13 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -11968,96 +10558,6 @@
         <v>0</v>
       </c>
       <c r="GT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12081,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H17" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -12276,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -12315,13 +10815,13 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -12666,96 +11166,6 @@
         <v>0</v>
       </c>
       <c r="GT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12977,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BW18" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BX18" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BY18" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -13022,31 +11432,31 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CS18" t="n">
         <v>0</v>
@@ -13364,96 +11774,6 @@
         <v>0</v>
       </c>
       <c r="GT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13597,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -13690,25 +12010,25 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CA19" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CB19" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CC19" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CD19" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CF19" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CG19" t="n">
         <v>0</v>
@@ -13747,25 +12067,25 @@
         <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CX19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CY19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CZ19" t="n">
         <v>0</v>
@@ -14062,96 +12382,6 @@
         <v>0</v>
       </c>
       <c r="GT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14256,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -14409,19 +12639,19 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CH20" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CI20" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CK20" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -14466,25 +12696,25 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DA20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DG20" t="n">
         <v>0</v>
@@ -14760,96 +12990,6 @@
         <v>0</v>
       </c>
       <c r="GT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14942,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -14960,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -14993,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
@@ -15122,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
@@ -15185,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="DG21" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -15458,96 +13598,6 @@
         <v>0</v>
       </c>
       <c r="GT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15562,7 +13612,7 @@
         <v>1767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -15571,10 +13621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -15667,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
@@ -15688,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -15823,10 +13873,10 @@
         <v>0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CO22" t="n">
         <v>0</v>
@@ -15886,13 +13936,13 @@
         <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DK22" t="n">
         <v>0</v>
@@ -16156,96 +14206,6 @@
         <v>0</v>
       </c>
       <c r="GT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16269,10 +14229,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -16302,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -16527,16 +14487,16 @@
         <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CP23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CS23" t="n">
         <v>0</v>
@@ -16593,16 +14553,16 @@
         <v>0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="DM23" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="DO23" t="n">
         <v>0</v>
@@ -16854,96 +14814,6 @@
         <v>0</v>
       </c>
       <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17237,16 +15107,16 @@
         <v>0</v>
       </c>
       <c r="CS24" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CU24" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CV24" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -17303,16 +15173,16 @@
         <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DS24" t="n">
         <v>0</v>
@@ -17552,96 +15422,6 @@
         <v>0</v>
       </c>
       <c r="GT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17698,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -17947,19 +15727,19 @@
         <v>0</v>
       </c>
       <c r="CW25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CX25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CY25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CZ25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DA25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DB25" t="n">
         <v>0</v>
@@ -18013,19 +15793,19 @@
         <v>0</v>
       </c>
       <c r="DS25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DW25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DX25" t="n">
         <v>0</v>
@@ -18250,96 +16030,6 @@
         <v>0</v>
       </c>
       <c r="GT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18432,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -18450,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
@@ -18483,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
@@ -18528,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BK26" t="n">
         <v>0</v>
@@ -18540,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BO26" t="n">
         <v>0</v>
@@ -18582,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -18660,19 +16350,19 @@
         <v>0</v>
       </c>
       <c r="DB26" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DC26" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DD26" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DE26" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DF26" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DG26" t="n">
         <v>0</v>
@@ -18726,19 +16416,19 @@
         <v>0</v>
       </c>
       <c r="DX26" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DY26" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DZ26" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EA26" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EB26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EC26" t="n">
         <v>0</v>
@@ -18948,96 +16638,6 @@
         <v>0</v>
       </c>
       <c r="GT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19061,16 +16661,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -19169,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -19373,34 +16973,34 @@
         <v>0</v>
       </c>
       <c r="DG27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DH27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DI27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DK27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DL27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DM27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DO27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DP27" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DQ27" t="n">
         <v>0</v>
@@ -19439,37 +17039,37 @@
         <v>0</v>
       </c>
       <c r="EC27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="ED27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EE27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EF27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EG27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EH27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EI27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EK27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EL27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EM27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="EN27" t="n">
         <v>0</v>
@@ -19646,96 +17246,6 @@
         <v>0</v>
       </c>
       <c r="GT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19759,10 +17269,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -19867,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -20071,34 +17581,34 @@
         <v>0</v>
       </c>
       <c r="DG28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DH28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DI28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DK28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DL28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DM28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DN28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DO28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DP28" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DQ28" t="n">
         <v>0</v>
@@ -20137,40 +17647,40 @@
         <v>0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EE28" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="EF28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EG28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EH28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EI28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EK28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EL28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EM28" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EN28" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="EO28" t="n">
         <v>0</v>
@@ -20344,96 +17854,6 @@
         <v>0</v>
       </c>
       <c r="GT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20538,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -20799,25 +18219,25 @@
         <v>0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DR29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DS29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DT29" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DU29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DW29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DX29" t="n">
         <v>0</v>
@@ -20871,25 +18291,25 @@
         <v>0</v>
       </c>
       <c r="EO29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EP29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EQ29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="ER29" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="ES29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="ET29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EU29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="EV29" t="n">
         <v>0</v>
@@ -21042,96 +18462,6 @@
         <v>0</v>
       </c>
       <c r="GT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21155,16 +18485,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -21197,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -21212,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -21236,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -21275,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
         <v>0</v>
@@ -21518,28 +18848,28 @@
         <v>0</v>
       </c>
       <c r="DX30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EB30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EC30" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="ED30" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="EE30" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EF30" t="n">
         <v>0</v>
@@ -21590,28 +18920,28 @@
         <v>0</v>
       </c>
       <c r="EV30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EW30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EX30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EY30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EZ30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FA30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FB30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="FC30" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FD30" t="n">
         <v>0</v>
@@ -21740,96 +19070,6 @@
         <v>0</v>
       </c>
       <c r="GT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21853,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -22042,10 +19282,10 @@
         <v>0</v>
       </c>
       <c r="BR31" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BS31" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BT31" t="n">
         <v>0</v>
@@ -22084,13 +19324,13 @@
         <v>0</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CG31" t="n">
         <v>0</v>
       </c>
       <c r="CH31" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CI31" t="n">
         <v>0</v>
@@ -22438,96 +19678,6 @@
         <v>0</v>
       </c>
       <c r="GT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22551,16 +19701,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -22569,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22938,28 +20088,28 @@
         <v>0</v>
       </c>
       <c r="EF32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EG32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EH32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EI32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EJ32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EK32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EL32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EM32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EN32" t="n">
         <v>0</v>
@@ -23010,28 +20160,28 @@
         <v>0</v>
       </c>
       <c r="FD32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FE32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FF32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FG32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FH32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FI32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FJ32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FK32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FL32" t="n">
         <v>0</v>
@@ -23136,96 +20286,6 @@
         <v>0</v>
       </c>
       <c r="GT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23369,65 +20429,65 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="n">
         <v>0.27</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>0</v>
-      </c>
       <c r="BO33" t="n">
         <v>0</v>
       </c>
@@ -23465,22 +20525,22 @@
         <v>0</v>
       </c>
       <c r="CA33" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CB33" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="CC33" t="n">
         <v>0</v>
       </c>
       <c r="CD33" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CE33" t="n">
         <v>0</v>
       </c>
       <c r="CF33" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CG33" t="n">
         <v>0</v>
@@ -23522,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="CT33" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CU33" t="n">
         <v>0</v>
@@ -23531,13 +20591,13 @@
         <v>0</v>
       </c>
       <c r="CW33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CX33" t="n">
         <v>0</v>
       </c>
       <c r="CY33" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CZ33" t="n">
         <v>0</v>
@@ -23600,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DU33" t="n">
         <v>0</v>
@@ -23660,19 +20720,19 @@
         <v>0</v>
       </c>
       <c r="EN33" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EO33" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EP33" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EQ33" t="n">
         <v>0</v>
       </c>
       <c r="ER33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="ES33" t="n">
         <v>0</v>
@@ -23732,13 +20792,13 @@
         <v>0</v>
       </c>
       <c r="FL33" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FM33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="FN33" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FO33" t="n">
         <v>0</v>
@@ -23834,96 +20894,6 @@
         <v>0</v>
       </c>
       <c r="GT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23965,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -23983,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -24202,7 +21172,7 @@
         <v>0</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CO34" t="n">
         <v>0</v>
@@ -24268,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="DK34" t="n">
         <v>0</v>
@@ -24367,16 +21337,16 @@
         <v>0</v>
       </c>
       <c r="EQ34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ER34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ES34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ET34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EU34" t="n">
         <v>0</v>
@@ -24439,25 +21409,25 @@
         <v>0</v>
       </c>
       <c r="FO34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FP34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FR34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FS34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FT34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FU34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="FV34" t="n">
         <v>0</v>
@@ -24532,96 +21502,6 @@
         <v>0</v>
       </c>
       <c r="GT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24645,10 +21525,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -24678,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -24765,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
         <v>0</v>
@@ -24843,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="BU35" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BV35" t="n">
         <v>0</v>
@@ -24891,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="CK35" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CL35" t="n">
         <v>0</v>
@@ -24915,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="CS35" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="CT35" t="n">
         <v>0</v>
@@ -24981,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="DO35" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="DP35" t="n">
         <v>0</v>
@@ -25077,19 +21957,19 @@
         <v>0</v>
       </c>
       <c r="EU35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EV35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EW35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EX35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EZ35" t="n">
         <v>0</v>
@@ -25158,19 +22038,19 @@
         <v>0</v>
       </c>
       <c r="FV35" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="FW35" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="FX35" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="FY35" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="FZ35" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="GA35" t="n">
         <v>0</v>
@@ -25230,96 +22110,6 @@
         <v>0</v>
       </c>
       <c r="GT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25790,16 +22580,16 @@
         <v>0</v>
       </c>
       <c r="EZ36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FA36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FB36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FC36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FD36" t="n">
         <v>0</v>
@@ -25871,19 +22661,19 @@
         <v>0</v>
       </c>
       <c r="GA36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GB36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GC36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GD36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GE36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GF36" t="n">
         <v>0</v>
@@ -25928,96 +22718,6 @@
         <v>0</v>
       </c>
       <c r="GT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26041,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26059,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -26074,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26083,7 +22783,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -26098,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -26170,7 +22870,7 @@
         <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AY37" t="n">
         <v>0</v>
@@ -26197,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="BG37" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BH37" t="n">
         <v>0</v>
@@ -26242,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="BV37" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BW37" t="n">
         <v>0</v>
@@ -26284,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="CJ37" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CK37" t="n">
         <v>0</v>
@@ -26500,16 +23200,16 @@
         <v>0</v>
       </c>
       <c r="FD37" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FE37" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FF37" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FG37" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FH37" t="n">
         <v>0</v>
@@ -26584,16 +23284,16 @@
         <v>0</v>
       </c>
       <c r="GF37" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="GG37" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="GH37" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="GI37" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="GJ37" t="n">
         <v>0</v>
@@ -26626,96 +23326,6 @@
         <v>0</v>
       </c>
       <c r="GT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26820,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -27117,10 +23727,10 @@
         <v>0</v>
       </c>
       <c r="EC38" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="ED38" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EE38" t="n">
         <v>0</v>
@@ -27189,10 +23799,10 @@
         <v>0</v>
       </c>
       <c r="FA38" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FB38" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FC38" t="n">
         <v>0</v>
@@ -27210,10 +23820,10 @@
         <v>0</v>
       </c>
       <c r="FH38" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="FI38" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="FJ38" t="n">
         <v>0</v>
@@ -27294,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="GJ38" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="GK38" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="GL38" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="GM38" t="n">
         <v>0</v>
@@ -27324,96 +23934,6 @@
         <v>0</v>
       </c>
       <c r="GT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27437,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -27626,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="BR39" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BS39" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BT39" t="n">
         <v>0</v>
@@ -27668,13 +24188,13 @@
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CG39" t="n">
         <v>0</v>
       </c>
       <c r="CH39" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CI39" t="n">
         <v>0</v>
@@ -28022,96 +24542,6 @@
         <v>0</v>
       </c>
       <c r="GT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28168,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -28177,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -28192,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -28255,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
         <v>0</v>
@@ -28612,19 +25042,19 @@
         <v>0</v>
       </c>
       <c r="FJ40" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="FK40" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="FL40" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="FM40" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="FN40" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="FO40" t="n">
         <v>0</v>
@@ -28699,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="GM40" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="GN40" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="GO40" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="GP40" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="GQ40" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="GR40" t="n">
         <v>0</v>
@@ -28720,96 +25150,6 @@
         <v>0</v>
       </c>
       <c r="GT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28833,16 +25173,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -28869,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -29103,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="CS41" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CT41" t="n">
         <v>0</v>
@@ -29169,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="DO41" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DP41" t="n">
         <v>0</v>
@@ -29325,16 +25665,16 @@
         <v>0</v>
       </c>
       <c r="FO41" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="FP41" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="FQ41" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="FR41" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="FS41" t="n">
         <v>0</v>
@@ -29412,102 +25752,12 @@
         <v>0</v>
       </c>
       <c r="GR41" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GS41" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="GT41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="GU41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="GV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29522,7 +25772,7 @@
         <v>1787</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -29564,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -29651,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
         <v>0</v>
@@ -29840,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="DF42" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="DG42" t="n">
         <v>0</v>
@@ -29906,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="EB42" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EC42" t="n">
         <v>0</v>
@@ -30035,25 +26285,25 @@
         <v>0</v>
       </c>
       <c r="FS42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FT42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FU42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FV42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FW42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FX42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FY42" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="FZ42" t="n">
         <v>0</v>
@@ -30116,96 +26366,6 @@
         <v>0</v>
       </c>
       <c r="GT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GW42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GX42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GY42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GZ42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HA42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HB42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30247,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30298,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -30316,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
@@ -30754,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="FZ43" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="GA43" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="GB43" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="GC43" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="GD43" t="n">
         <v>0</v>
@@ -30814,96 +26974,6 @@
         <v>0</v>
       </c>
       <c r="GT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC43" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="HD43" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="HE43" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="HF43" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="HG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30936,7 +27006,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -31188,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="CP44" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CQ44" t="n">
         <v>0</v>
@@ -31311,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="EE44" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="EF44" t="n">
         <v>0</v>
@@ -31464,28 +27534,28 @@
         <v>0</v>
       </c>
       <c r="GD44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GE44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GF44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GG44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GH44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GI44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GJ44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GK44" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GL44" t="n">
         <v>0</v>
@@ -31512,96 +27582,6 @@
         <v>0</v>
       </c>
       <c r="GT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HH44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HI44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HJ44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HK44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HL44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HM44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HN44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="HO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31847,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="CC45" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CD45" t="n">
         <v>0</v>
@@ -31904,7 +27884,7 @@
         <v>0</v>
       </c>
       <c r="CV45" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CW45" t="n">
         <v>0</v>
@@ -31940,7 +27920,7 @@
         <v>0</v>
       </c>
       <c r="DH45" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DI45" t="n">
         <v>0</v>
@@ -32186,13 +28166,13 @@
         <v>0</v>
       </c>
       <c r="GL45" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="GM45" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="GN45" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="GO45" t="n">
         <v>0</v>
@@ -32210,96 +28190,6 @@
         <v>0</v>
       </c>
       <c r="GT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO45" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="HP45" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="HQ45" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="HR45" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="HS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32323,10 +28213,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H46" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -32443,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
         <v>0</v>
@@ -32893,111 +28783,21 @@
         <v>0</v>
       </c>
       <c r="GO46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GP46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GQ46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GR46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GS46" t="n">
         <v>0</v>
       </c>
       <c r="GT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS46" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="HT46" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="HU46" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="HV46" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="HW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33054,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -33330,7 +29130,7 @@
         <v>0</v>
       </c>
       <c r="DF47" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DG47" t="n">
         <v>0</v>
@@ -33396,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="EB47" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EC47" t="n">
         <v>0</v>
@@ -33603,100 +29403,10 @@
         <v>0</v>
       </c>
       <c r="GS47" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="GT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW47" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="HX47" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="48">
@@ -33839,7 +29549,7 @@
         <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AV48" t="n">
         <v>0</v>
@@ -33896,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="BN48" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BO48" t="n">
         <v>0</v>
@@ -33935,10 +29645,10 @@
         <v>0</v>
       </c>
       <c r="CA48" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CB48" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CC48" t="n">
         <v>0</v>
@@ -33950,7 +29660,7 @@
         <v>0</v>
       </c>
       <c r="CF48" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CG48" t="n">
         <v>0</v>
@@ -33992,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="CT48" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CU48" t="n">
         <v>0</v>
@@ -34007,7 +29717,7 @@
         <v>0</v>
       </c>
       <c r="CY48" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CZ48" t="n">
         <v>0</v>
@@ -34133,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="EO48" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EP48" t="n">
         <v>0</v>
@@ -34205,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="FM48" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="FN48" t="n">
         <v>0</v>
@@ -34304,96 +30014,6 @@
         <v>0</v>
       </c>
       <c r="GT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX48" t="n">
         <v>0</v>
       </c>
     </row>
